--- a/Server/PricatData.xlsx
+++ b/Server/PricatData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\PricatDemo\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\PricatDemo\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E3EB0-F50D-472B-8F05-48B088A490DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D37611-659F-4A86-A736-7ABA502E54D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1447C57D-B310-4100-80FC-8E48295BCAB4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1447C57D-B310-4100-80FC-8E48295BCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -42,584 +42,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="198">
-  <si>
-    <t>Alimentos</t>
-  </si>
-  <si>
-    <t>Bebidas</t>
-  </si>
-  <si>
-    <t>Productos de Aseo</t>
-  </si>
-  <si>
-    <t>Ropa</t>
-  </si>
-  <si>
-    <t>Medicamentos</t>
-  </si>
-  <si>
-    <t>Herramientas</t>
-  </si>
-  <si>
-    <t>Joyeria</t>
-  </si>
-  <si>
-    <t>Tecnologia</t>
-  </si>
-  <si>
-    <t>Jugueteria</t>
-  </si>
-  <si>
-    <t>Mascotas</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="195">
   <si>
     <t>Eans</t>
   </si>
   <si>
-    <t>Zapatos</t>
-  </si>
-  <si>
-    <t>Leche</t>
-  </si>
-  <si>
-    <t>Litro</t>
-  </si>
-  <si>
     <t>Pan</t>
   </si>
   <si>
-    <t>Unidad</t>
-  </si>
-  <si>
-    <t>Arroz</t>
-  </si>
-  <si>
-    <t>Kilogramo</t>
-  </si>
-  <si>
-    <t>Frijoles</t>
-  </si>
-  <si>
-    <t>Huevos</t>
-  </si>
-  <si>
-    <t>Carne de res</t>
-  </si>
-  <si>
-    <t>Pollo</t>
-  </si>
-  <si>
-    <t>Atún enlatado</t>
-  </si>
-  <si>
-    <t>Lata</t>
-  </si>
-  <si>
-    <t>Queso</t>
-  </si>
-  <si>
-    <t>Yogur</t>
-  </si>
-  <si>
-    <t>Cebolla</t>
-  </si>
-  <si>
-    <t>Tomate</t>
-  </si>
-  <si>
-    <t>Agua mineral</t>
-  </si>
-  <si>
-    <t>Botella (500 ml)</t>
-  </si>
-  <si>
-    <t>Refresco de cola</t>
-  </si>
-  <si>
-    <t>Botella (600 ml)</t>
-  </si>
-  <si>
-    <t>Jugo de naranja</t>
-  </si>
-  <si>
-    <t>Botella (1 litro)</t>
-  </si>
-  <si>
-    <t>Té helado</t>
-  </si>
-  <si>
-    <t>Limonada</t>
-  </si>
-  <si>
-    <t>Vaso (350 ml)</t>
-  </si>
-  <si>
-    <t>Café</t>
-  </si>
-  <si>
-    <t>Taza (250 ml)</t>
-  </si>
-  <si>
-    <t>Cerveza</t>
-  </si>
-  <si>
-    <t>Botella (355 ml)</t>
-  </si>
-  <si>
-    <t>Vino tinto</t>
-  </si>
-  <si>
-    <t>Botella (750 ml)</t>
-  </si>
-  <si>
-    <t>Licor de ron</t>
-  </si>
-  <si>
-    <t>Whisky</t>
-  </si>
-  <si>
-    <t>Refresco de naranja</t>
-  </si>
-  <si>
-    <t>Agua con gas</t>
-  </si>
-  <si>
-    <t>Papel higiénico</t>
-  </si>
-  <si>
-    <t>Rollo (4 unidades)</t>
-  </si>
-  <si>
-    <t>Jabón de tocador</t>
-  </si>
-  <si>
-    <t>Barra (100 g)</t>
-  </si>
-  <si>
-    <t>Desodorante</t>
-  </si>
-  <si>
-    <t>Champú</t>
-  </si>
-  <si>
-    <t>Acondicionador</t>
-  </si>
-  <si>
-    <t>Crema dental</t>
-  </si>
-  <si>
-    <t>Tubo (120 g)</t>
-  </si>
-  <si>
-    <t>Enjuague bucal</t>
-  </si>
-  <si>
-    <t>Toallas femeninas</t>
-  </si>
-  <si>
-    <t>Paquete (10 unidades)</t>
-  </si>
-  <si>
-    <t>Papel absorbente</t>
-  </si>
-  <si>
-    <t>Rollo (50 hojas)</t>
-  </si>
-  <si>
-    <t>Detergente para ropa</t>
-  </si>
-  <si>
-    <t>Suavizante de telas</t>
-  </si>
-  <si>
-    <t>Limpiador multiusos</t>
-  </si>
-  <si>
-    <t>Camisa de algodón</t>
-  </si>
-  <si>
-    <t>Pantalón de mezclilla</t>
-  </si>
-  <si>
-    <t>Camiseta</t>
-  </si>
-  <si>
-    <t>Vestido</t>
-  </si>
-  <si>
-    <t>Blusa</t>
-  </si>
-  <si>
-    <t>Falda</t>
-  </si>
-  <si>
-    <t>Traje de baño</t>
-  </si>
-  <si>
-    <t>Calcetines</t>
-  </si>
-  <si>
-    <t>Par</t>
-  </si>
-  <si>
-    <t>Zapatos deportivos</t>
-  </si>
-  <si>
-    <t>Chaqueta de cuero</t>
-  </si>
-  <si>
-    <t>Gorra</t>
-  </si>
-  <si>
-    <t>Pantuflas</t>
-  </si>
-  <si>
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>Ibuprofeno</t>
-  </si>
-  <si>
-    <t>Aspirina</t>
-  </si>
-  <si>
-    <t>Loratadina</t>
-  </si>
-  <si>
-    <t>Dipirona</t>
-  </si>
-  <si>
-    <t>Omeprazol</t>
-  </si>
-  <si>
-    <t>Amoxicilina</t>
-  </si>
-  <si>
-    <t>Paroxetina</t>
-  </si>
-  <si>
-    <t>Metformina</t>
-  </si>
-  <si>
-    <t>Atorvastatina</t>
-  </si>
-  <si>
-    <t>Vitamina C</t>
-  </si>
-  <si>
-    <t>Clorfenamina</t>
-  </si>
-  <si>
-    <t>Martillo</t>
-  </si>
-  <si>
-    <t>Destornillador</t>
-  </si>
-  <si>
-    <t>Taladro</t>
-  </si>
-  <si>
-    <t>Sierra circular</t>
-  </si>
-  <si>
-    <t>Llave inglesa</t>
-  </si>
-  <si>
-    <t>Pinzas</t>
-  </si>
-  <si>
-    <t>Cinta métrica</t>
-  </si>
-  <si>
-    <t>Nivel de burbuja</t>
-  </si>
-  <si>
-    <t>Serrucho</t>
-  </si>
-  <si>
-    <t>Llave de tubo</t>
-  </si>
-  <si>
-    <t>Pistola de calor</t>
-  </si>
-  <si>
-    <t>Lijadora de banda</t>
-  </si>
-  <si>
-    <t>Frutas</t>
-  </si>
-  <si>
-    <t>Manzanas</t>
-  </si>
-  <si>
-    <t>Plátanos</t>
-  </si>
-  <si>
-    <t>Naranjas</t>
-  </si>
-  <si>
-    <t>Fresas</t>
-  </si>
-  <si>
-    <t>Piñas</t>
-  </si>
-  <si>
-    <t>Sandías</t>
-  </si>
-  <si>
-    <t>Melones</t>
-  </si>
-  <si>
-    <t>Mangos</t>
-  </si>
-  <si>
-    <t>Uvas</t>
-  </si>
-  <si>
-    <t>Papayas</t>
-  </si>
-  <si>
-    <t>Kiwis</t>
-  </si>
-  <si>
-    <t>Limones</t>
-  </si>
-  <si>
-    <t>Anillo de oro blanco</t>
-  </si>
-  <si>
-    <t>Aretes de plata con zirconia</t>
-  </si>
-  <si>
-    <t>Pulsera de perlas</t>
-  </si>
-  <si>
-    <t>Collar de plata con dije de corazón</t>
-  </si>
-  <si>
-    <t>Anillo de compromiso con diamante</t>
-  </si>
-  <si>
-    <t>Aretes de oro amarillo con perlas</t>
-  </si>
-  <si>
-    <t>Pulsera de oro rosa con dije de inicial</t>
-  </si>
-  <si>
-    <t>Collar de oro blanco con diamantes</t>
-  </si>
-  <si>
-    <t>Anillo de plata con piedra de ópalo</t>
-  </si>
-  <si>
-    <t>Aretes de oro blanco con diamantes</t>
-  </si>
-  <si>
-    <t>Pulsera de oro amarillo con dijes de corazón</t>
-  </si>
-  <si>
-    <t>Collar de plata con colgante de luna</t>
-  </si>
-  <si>
-    <t>Laptop Lenovo</t>
-  </si>
-  <si>
-    <t>Teléfono iPhone 13</t>
-  </si>
-  <si>
-    <t>Tableta Samsung Galaxy Tab S7</t>
-  </si>
-  <si>
-    <t>Auriculares inalámbricos Sony</t>
-  </si>
-  <si>
-    <t>Altavoz Bluetooth JBL</t>
-  </si>
-  <si>
-    <t>Consola de videojuegos PlayStation 5</t>
-  </si>
-  <si>
-    <t>Cámara Canon EOS R6</t>
-  </si>
-  <si>
-    <t>Router WiFi TP-Link</t>
-  </si>
-  <si>
-    <t>Disco duro externo Seagate 2TB</t>
-  </si>
-  <si>
-    <t>Impresora HP OfficeJet Pro 9015</t>
-  </si>
-  <si>
-    <t>Muñeca Barbie</t>
-  </si>
-  <si>
-    <t>Coche de carreras de control remoto</t>
-  </si>
-  <si>
-    <t>Set de bloques de construcción LEGO</t>
-  </si>
-  <si>
-    <t>Juego de mesa Monopoly</t>
-  </si>
-  <si>
-    <t>Rompecabezas de 500 piezas</t>
-  </si>
-  <si>
-    <t>Peluche de unicornio</t>
-  </si>
-  <si>
-    <t>Set de pintura y dibujo para niños</t>
-  </si>
-  <si>
-    <t>Libro para colorear de Disney</t>
-  </si>
-  <si>
-    <t>Juguete de dinosaurio T-Rex</t>
-  </si>
-  <si>
-    <t>Pelota de fútbol</t>
-  </si>
-  <si>
-    <t>Juego de cocina de juguete</t>
-  </si>
-  <si>
-    <t>Trompo de madera</t>
-  </si>
-  <si>
-    <t>Bolsa de alimento para perro marca Pedigree</t>
-  </si>
-  <si>
-    <t>Bolsa de 7.5 kg</t>
-  </si>
-  <si>
-    <t>Bolsa de alimento para gato marca Whiskas</t>
-  </si>
-  <si>
-    <t>Bolsa de 2 kg</t>
-  </si>
-  <si>
-    <t>Juguete para perro de peluche</t>
-  </si>
-  <si>
-    <t>Juguete para gato de cuerda</t>
-  </si>
-  <si>
-    <t>Cama para mascota tamaño mediano</t>
-  </si>
-  <si>
-    <t>Collar para perro ajustable</t>
-  </si>
-  <si>
-    <t>Correa para perro de cuero</t>
-  </si>
-  <si>
-    <t>Arena para gato marca Tidy Cats</t>
-  </si>
-  <si>
-    <t>Bolsa de 4 kg</t>
-  </si>
-  <si>
-    <t>Peine para pelo de mascota</t>
-  </si>
-  <si>
-    <t>Champú para perro marca Hartz</t>
-  </si>
-  <si>
-    <t>Botella de 18 oz</t>
-  </si>
-  <si>
-    <t>Arena de sílice para gato</t>
-  </si>
-  <si>
-    <t>Bolsa de 3.8 L</t>
-  </si>
-  <si>
-    <t>Comedero para mascota con base antideslizante</t>
-  </si>
-  <si>
-    <t>Zapatos de tacón alto de cuero para mujer</t>
-  </si>
-  <si>
-    <t>Botas de invierno impermeables para hombre</t>
-  </si>
-  <si>
-    <t>Sandalias de playa para mujer</t>
-  </si>
-  <si>
-    <t>Zapatillas deportivas para correr para hombre</t>
-  </si>
-  <si>
-    <t>Zapatos de vestir de cuero para hombre</t>
-  </si>
-  <si>
-    <t>Zapatos planos de ballet para mujer</t>
-  </si>
-  <si>
-    <t>Botines de cuero con cordones para hombre</t>
-  </si>
-  <si>
-    <t>Zapatos de tacón bajo de charol para mujer</t>
-  </si>
-  <si>
-    <t>Zapatillas de deporte para mujer</t>
-  </si>
-  <si>
-    <t>Zapatos casuales de lona para hombre</t>
-  </si>
-  <si>
-    <t>Botas de cuero con hebilla para mujer</t>
-  </si>
-  <si>
-    <t>Zapatos de tacón medio de ante para mujer</t>
-  </si>
-  <si>
-    <t>Caja (10 tabs de 500 mg)</t>
-  </si>
-  <si>
-    <t>Caja (20 tabs de 400 mg)</t>
-  </si>
-  <si>
-    <t>Caja (30 tabs de 500 mg)</t>
-  </si>
-  <si>
-    <t>Caja (10 tabs de 10 mg)</t>
-  </si>
-  <si>
-    <t>Caja (20 tabs de 500 mg)</t>
-  </si>
-  <si>
-    <t>Caja (14 cáps de 20 mg)</t>
-  </si>
-  <si>
-    <t>Caja (20 cáps de 500 mg)</t>
-  </si>
-  <si>
-    <t>Caja (30 tabs de 20 mg)</t>
-  </si>
-  <si>
-    <t>Caja (30 tabs de 850 mg)</t>
-  </si>
-  <si>
-    <t>Caja (30 tabs de 10 mg)</t>
-  </si>
-  <si>
-    <t>Caja (10 tabs de 4 mg)</t>
-  </si>
-  <si>
-    <t>Monitor Dell 27 pulgadas</t>
-  </si>
-  <si>
-    <t>Televisor LG 55 pulgadas 4K</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -636,6 +69,564 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Grooming Products</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Medicines</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Toy store</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Jewelery</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Canned tuna</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Yoghurt</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Mineral waters</t>
+  </si>
+  <si>
+    <t>Cola drink</t>
+  </si>
+  <si>
+    <t>Orange juice</t>
+  </si>
+  <si>
+    <t>Iced tea</t>
+  </si>
+  <si>
+    <t>Lemonade</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Red wine</t>
+  </si>
+  <si>
+    <t>Rum Liqueur</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Orange soda</t>
+  </si>
+  <si>
+    <t>Soda water</t>
+  </si>
+  <si>
+    <t>Toilet paper</t>
+  </si>
+  <si>
+    <t>Toilet soap</t>
+  </si>
+  <si>
+    <t>Deodorant</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Conditioner</t>
+  </si>
+  <si>
+    <t>Toothpaste</t>
+  </si>
+  <si>
+    <t>Mouthwash</t>
+  </si>
+  <si>
+    <t>Feminine towels</t>
+  </si>
+  <si>
+    <t>Absorbent paper</t>
+  </si>
+  <si>
+    <t>Clothes detergent</t>
+  </si>
+  <si>
+    <t>Fabric softener</t>
+  </si>
+  <si>
+    <t>Multipurpose Cleaner</t>
+  </si>
+  <si>
+    <t>Cotton shirt</t>
+  </si>
+  <si>
+    <t>Blue jeans</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Swimsuit</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Sports shoes</t>
+  </si>
+  <si>
+    <t>Leather jacket</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+  <si>
+    <t>Ibuprofen</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>Loratadine</t>
+  </si>
+  <si>
+    <t>Dipyrone</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>Paroxetine</t>
+  </si>
+  <si>
+    <t>Morphine</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>Chlorphenamine</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
+  </si>
+  <si>
+    <t>Drill</t>
+  </si>
+  <si>
+    <t>circular saw</t>
+  </si>
+  <si>
+    <t>Wrench</t>
+  </si>
+  <si>
+    <t>tweezers</t>
+  </si>
+  <si>
+    <t>measuring tape</t>
+  </si>
+  <si>
+    <t>Bubble level</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>pipe wrench</t>
+  </si>
+  <si>
+    <t>heat gun</t>
+  </si>
+  <si>
+    <t>Belt sander</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>pineapples</t>
+  </si>
+  <si>
+    <t>watermelons</t>
+  </si>
+  <si>
+    <t>Melons</t>
+  </si>
+  <si>
+    <t>mangoes</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>papayas</t>
+  </si>
+  <si>
+    <t>kiwis</t>
+  </si>
+  <si>
+    <t>lemons</t>
+  </si>
+  <si>
+    <t>white gold ring</t>
+  </si>
+  <si>
+    <t>Silver earrings with zircons</t>
+  </si>
+  <si>
+    <t>Pearl bracelet</t>
+  </si>
+  <si>
+    <t>Silver necklace with heart pendant.</t>
+  </si>
+  <si>
+    <t>Diamond engagement ring</t>
+  </si>
+  <si>
+    <t>Yellow gold earrings with pearls</t>
+  </si>
+  <si>
+    <t>Rose gold bracelet with initial charm</t>
+  </si>
+  <si>
+    <t>White gold necklace with diamonds.</t>
+  </si>
+  <si>
+    <t>Silver ring with opal stone</t>
+  </si>
+  <si>
+    <t>White gold earrings with diamonds</t>
+  </si>
+  <si>
+    <t>Yellow gold bracelet with heart charms.</t>
+  </si>
+  <si>
+    <t>Silver necklace with moon pendant.</t>
+  </si>
+  <si>
+    <t>lenovo laptop</t>
+  </si>
+  <si>
+    <t>iPhone 13 phone</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S7 tablet</t>
+  </si>
+  <si>
+    <t>LG 55 inch 4K TV</t>
+  </si>
+  <si>
+    <t>Sony wireless headphones</t>
+  </si>
+  <si>
+    <t>JBL Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t>PlayStation 5 video game console</t>
+  </si>
+  <si>
+    <t>Canon EOS R6 Camera</t>
+  </si>
+  <si>
+    <t>Dell 27 inch monitor</t>
+  </si>
+  <si>
+    <t>TP-Link WiFi Router</t>
+  </si>
+  <si>
+    <t>Seagate 2TB external hard drive</t>
+  </si>
+  <si>
+    <t>HP OfficeJet Pro 9015 Printer</t>
+  </si>
+  <si>
+    <t>Barbie doll</t>
+  </si>
+  <si>
+    <t>Remote control racing car</t>
+  </si>
+  <si>
+    <t>LEGO building blocks set</t>
+  </si>
+  <si>
+    <t>Monopoly board game</t>
+  </si>
+  <si>
+    <t>500 piece puzzle</t>
+  </si>
+  <si>
+    <t>unicorn plush</t>
+  </si>
+  <si>
+    <t>Painting and drawing set for children</t>
+  </si>
+  <si>
+    <t>Disney Coloring Book</t>
+  </si>
+  <si>
+    <t>T-Rex Dinosaur Toy</t>
+  </si>
+  <si>
+    <t>Soccer ball</t>
+  </si>
+  <si>
+    <t>toy kitchen set</t>
+  </si>
+  <si>
+    <t>Wooden spinning top</t>
+  </si>
+  <si>
+    <t>Pedigree brand dog food bag</t>
+  </si>
+  <si>
+    <t>Whiskas brand cat food bag</t>
+  </si>
+  <si>
+    <t>plush dog toy</t>
+  </si>
+  <si>
+    <t>rope cat toy</t>
+  </si>
+  <si>
+    <t>Medium size pet bed</t>
+  </si>
+  <si>
+    <t>Adjustable dog collar</t>
+  </si>
+  <si>
+    <t>Leather dog leash.</t>
+  </si>
+  <si>
+    <t>Tidy Cats brand cat litter</t>
+  </si>
+  <si>
+    <t>Pet hair comb</t>
+  </si>
+  <si>
+    <t>Hartz brand dog shampoo</t>
+  </si>
+  <si>
+    <t>Silica cat litter</t>
+  </si>
+  <si>
+    <t>Pet feeder with non-slip base</t>
+  </si>
+  <si>
+    <t>Leather High Heel Shoes</t>
+  </si>
+  <si>
+    <t>Waterproof winter boots</t>
+  </si>
+  <si>
+    <t>Flip flops</t>
+  </si>
+  <si>
+    <t>Running sports shoes</t>
+  </si>
+  <si>
+    <t>Leather dress shoes</t>
+  </si>
+  <si>
+    <t>ballet flat shoes</t>
+  </si>
+  <si>
+    <t>Lace-up leather ankle boots</t>
+  </si>
+  <si>
+    <t>Patent heeled shoes</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>Casual Canvas Shoes</t>
+  </si>
+  <si>
+    <t>Leather boots with buckle</t>
+  </si>
+  <si>
+    <t>medium heel shoes</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Bottle (500ml)</t>
+  </si>
+  <si>
+    <t>Bottle (600ml)</t>
+  </si>
+  <si>
+    <t>Bottle (1 liter)</t>
+  </si>
+  <si>
+    <t>Glass (350 ml)</t>
+  </si>
+  <si>
+    <t>Mug (250ml)</t>
+  </si>
+  <si>
+    <t>Bottle (355ml)</t>
+  </si>
+  <si>
+    <t>Bottle (750ml)</t>
+  </si>
+  <si>
+    <t>Roll (4 units)</t>
+  </si>
+  <si>
+    <t>Bar (100g)</t>
+  </si>
+  <si>
+    <t>Tube (120g)</t>
+  </si>
+  <si>
+    <t>Package (10 units)</t>
+  </si>
+  <si>
+    <t>Roll (50 sheets)</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Box (10 tabs of 500 mg)</t>
+  </si>
+  <si>
+    <t>Box (20 tabs of 400 mg)</t>
+  </si>
+  <si>
+    <t>Box (30 tabs of 500 mg)</t>
+  </si>
+  <si>
+    <t>Box (10 tabs of 10 mg)</t>
+  </si>
+  <si>
+    <t>Box (20 tabs of 500 mg)</t>
+  </si>
+  <si>
+    <t>Box (14 capsules of 20 mg)</t>
+  </si>
+  <si>
+    <t>Box (20 capsules of 500 mg)</t>
+  </si>
+  <si>
+    <t>Box (30 tabs of 20 mg)</t>
+  </si>
+  <si>
+    <t>Box (30 tabs of 850 mg)</t>
+  </si>
+  <si>
+    <t>Box (30 tabs of 10 mg)</t>
+  </si>
+  <si>
+    <t>Box (10 tabs of 4 mg)</t>
+  </si>
+  <si>
+    <t>7.5kg bag</t>
+  </si>
+  <si>
+    <t>2kg bag</t>
+  </si>
+  <si>
+    <t>4kg bag</t>
+  </si>
+  <si>
+    <t>18oz bottle</t>
+  </si>
+  <si>
+    <t>3.8 L bag</t>
   </si>
 </sst>
 </file>
@@ -671,9 +662,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,9 +684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -732,7 +724,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -838,7 +830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -980,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -988,168 +980,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEED1B30-C327-408A-9678-851829BEDB00}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("{""",$A$1,""": ",A2,", """,$B$1,""": """,+B2,"""},")</f>
-        <v>{"id": 1, "description": "Alimentos"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 1, "Description": "Food"},</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Categories(",$B$1,") VALUES(", "'", B2, "');")</f>
+        <v>INSERT INTO Categories(Description) VALUES('Food');</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C13" si="0">_xlfn.CONCAT("{""",$A$1,""": ",A3,", """,$B$1,""": """,+B3,"""},")</f>
-        <v>{"id": 2, "description": "Bebidas"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 2, "Description": "Drinks"},</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Categories(",$B$1,") VALUES(", "'", B3, "');")</f>
+        <v>INSERT INTO Categories(Description) VALUES('Drinks');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 3, "description": "Productos de Aseo"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 3, "Description": "Grooming Products"},</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D13" si="1">_xlfn.CONCAT("INSERT INTO Categories(",$B$1,") VALUES(", "'", B4, "');")</f>
+        <v>INSERT INTO Categories(Description) VALUES('Grooming Products');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 4, "description": "Ropa"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 4, "Description": "Clothes"},</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Clothes');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 5, "description": "Medicamentos"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 5, "Description": "Medicines"},</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Medicines');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 6, "description": "Herramientas"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 6, "Description": "Tools"},</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Tools');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 7, "description": "Frutas"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 7, "Description": "Fruit"},</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Fruit');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 8, "description": "Joyeria"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 8, "Description": "Jewelery"},</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Jewelery');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 9, "description": "Tecnologia"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 9, "Description": "Technology"},</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Technology');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 10, "description": "Jugueteria"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 10, "Description": "Toy store"},</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Toy store');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 11, "description": "Mascotas"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>{"Id": 11, "Description": "Pets"},</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Pets');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>{"id": 12, "description": "Zapatos"},</v>
+        <v>{"Id": 12, "Description": "Shoes"},</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Categories(Description) VALUES('Shoes');</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7693C29-6442-4DBF-844C-D10259BEBE77}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G145"/>
@@ -1173,30 +1215,31 @@
     <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1207,20 +1250,24 @@
         <v>7707248000429</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3750</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="G2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO Products (",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,") VALUES(",B2,",'",C2,"','",D2,"',",E2,",'",F2,"');")</f>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248000429','Milk',3750,'Liter');</v>
+      </c>
+      <c r="H2" t="str">
         <f>_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A2,", ", $B$1,"= ",B2,", ", "",$C$1,"= """,C2,""", ",$D$1,"= """,D2,""",  ",$E$1,"= ",E2,",  ",$F$1,"= """,F2,"""},")</f>
-        <v>new Product() {Id= 1, CategoryId= 1, EanCode= "7707248000429", Description= "Leche",  Price= 3750,  Unit= "Litro"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>new Product() {Id= 1, CategoryId= 1, EanCode= "7707248000429", Description= "Milk",  Price= 3750,  Unit= "Liter"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1231,20 +1278,24 @@
         <v>7707248005868</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>5500</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A3,", ", $B$1,"= ",B3,", ", "",$C$1,"= """,C3,""", ",$D$1,"= """,D3,""",  ",$E$1,"= ",E3,",  ",$F$1,"= """,F3,"""},")</f>
-        <v>new Product() {Id= 2, CategoryId= 1, EanCode= "7707248005868", Description= "Pan",  Price= 5500,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G3:G66" si="0">_xlfn.CONCAT("INSERT INTO Products (",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,") VALUES(",B3,",'",C3,"','",D3,"',",E3,",'",F3,"');")</f>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248005868','Pan',5500,'Unit');</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="1">_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A3,", ", $B$1,"= ",B3,", ", "",$C$1,"= """,C3,""", ",$D$1,"= """,D3,""",  ",$E$1,"= ",E3,",  ",$F$1,"= """,F3,"""},")</f>
+        <v>new Product() {Id= 2, CategoryId= 1, EanCode= "7707248005868", Description= "Pan",  Price= 5500,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1255,20 +1306,24 @@
         <v>7707248015607</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>4500</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 3, CategoryId= 1, EanCode= "7707248015607", Description= "Arroz",  Price= 4500,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248015607','Rice',4500,'Kilogram');</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 3, CategoryId= 1, EanCode= "7707248015607", Description= "Rice",  Price= 4500,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1279,20 +1334,24 @@
         <v>7707248023831</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3000</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 4, CategoryId= 1, EanCode= "7707248023831", Description= "Frijoles",  Price= 3000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248023831','Beans',3000,'Kilogram');</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 4, CategoryId= 1, EanCode= "7707248023831", Description= "Beans",  Price= 3000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1303,20 +1362,24 @@
         <v>7707248027082</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>18000</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 5, CategoryId= 1, EanCode= "7707248027082", Description= "Huevos",  Price= 18000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248027082','egg',18000,'Unit');</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 5, CategoryId= 1, EanCode= "7707248027082", Description= "egg",  Price= 18000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1327,20 +1390,24 @@
         <v>7707248028539</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>15000</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 6, CategoryId= 1, EanCode= "7707248028539", Description= "Carne de res",  Price= 15000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248028539','Beef',15000,'Kilogram');</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 6, CategoryId= 1, EanCode= "7707248028539", Description= "Beef",  Price= 15000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1351,20 +1418,24 @@
         <v>7707248031553</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>12000</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 7, CategoryId= 1, EanCode= "7707248031553", Description= "Pollo",  Price= 12000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248031553','Chicken',12000,'Kilogram');</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 7, CategoryId= 1, EanCode= "7707248031553", Description= "Chicken",  Price= 12000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1375,20 +1446,24 @@
         <v>7707248032444</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>11000</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 8, CategoryId= 1, EanCode= "7707248032444", Description= "Atún enlatado",  Price= 11000,  Unit= "Lata"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248032444','Canned tuna',11000,'Can');</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 8, CategoryId= 1, EanCode= "7707248032444", Description= "Canned tuna",  Price= 11000,  Unit= "Can"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1399,20 +1474,24 @@
         <v>7707248034080</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>7500</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 9, CategoryId= 1, EanCode= "7707248034080", Description= "Queso",  Price= 7500,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248034080','Cheese',7500,'Kilogram');</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 9, CategoryId= 1, EanCode= "7707248034080", Description= "Cheese",  Price= 7500,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1423,20 +1502,24 @@
         <v>7707248034707</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>6500</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 10, CategoryId= 1, EanCode= "7707248034707", Description= "Yogur",  Price= 6500,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248034707','Yoghurt',6500,'Unit');</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 10, CategoryId= 1, EanCode= "7707248034707", Description= "Yoghurt",  Price= 6500,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1447,20 +1530,24 @@
         <v>7707248036640</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>950</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 11, CategoryId= 1, EanCode= "7707248036640", Description= "Cebolla",  Price= 950,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248036640','Onion',950,'Kilogram');</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 11, CategoryId= 1, EanCode= "7707248036640", Description= "Onion",  Price= 950,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1471,20 +1558,24 @@
         <v>7707248039832</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1200</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 12, CategoryId= 1, EanCode= "7707248039832", Description= "Tomate",  Price= 1200,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(1,'7707248039832','Tomato',1200,'Kilogram');</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 12, CategoryId= 1, EanCode= "7707248039832", Description= "Tomato",  Price= 1200,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1495,20 +1586,24 @@
         <v>7707248044249</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>2500</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 13, CategoryId= 2, EanCode= "7707248044249", Description= "Agua mineral",  Price= 2500,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248044249','Mineral waters',2500,'Bottle (500ml)');</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 13, CategoryId= 2, EanCode= "7707248044249", Description= "Mineral waters",  Price= 2500,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1519,20 +1614,24 @@
         <v>7707248045529</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>3700</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 14, CategoryId= 2, EanCode= "7707248045529", Description= "Refresco de cola",  Price= 3700,  Unit= "Botella (600 ml)"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248045529','Cola drink',3700,'Bottle (600ml)');</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 14, CategoryId= 2, EanCode= "7707248045529", Description= "Cola drink",  Price= 3700,  Unit= "Bottle (600ml)"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1549,14 +1648,18 @@
         <v>3500</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 15, CategoryId= 2, EanCode= "7707248052329", Description= "Jugo de naranja",  Price= 3500,  Unit= "Botella (1 litro)"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248052329','Orange juice',3500,'Bottle (1 liter)');</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 15, CategoryId= 2, EanCode= "7707248052329", Description= "Orange juice",  Price= 3500,  Unit= "Bottle (1 liter)"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1567,20 +1670,24 @@
         <v>7707248066999</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>2000</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 16, CategoryId= 2, EanCode= "7707248066999", Description= "Té helado",  Price= 2000,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248066999','Iced tea',2000,'Bottle (500ml)');</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 16, CategoryId= 2, EanCode= "7707248066999", Description= "Iced tea",  Price= 2000,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1591,20 +1698,24 @@
         <v>7707248068504</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>1500</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 17, CategoryId= 2, EanCode= "7707248068504", Description= "Limonada",  Price= 1500,  Unit= "Vaso (350 ml)"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248068504','Lemonade',1500,'Glass (350 ml)');</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 17, CategoryId= 2, EanCode= "7707248068504", Description= "Lemonade",  Price= 1500,  Unit= "Glass (350 ml)"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1615,20 +1726,24 @@
         <v>7707248074710</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 18, CategoryId= 2, EanCode= "7707248074710", Description= "Café",  Price= 1000,  Unit= "Taza (250 ml)"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248074710','Coffee',1000,'Mug (250ml)');</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 18, CategoryId= 2, EanCode= "7707248074710", Description= "Coffee",  Price= 1000,  Unit= "Mug (250ml)"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1639,20 +1754,24 @@
         <v>7707248087246</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>6500</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 19, CategoryId= 2, EanCode= "7707248087246", Description= "Cerveza",  Price= 6500,  Unit= "Botella (355 ml)"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248087246','Beer',6500,'Bottle (355ml)');</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 19, CategoryId= 2, EanCode= "7707248087246", Description= "Beer",  Price= 6500,  Unit= "Bottle (355ml)"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1663,20 +1782,24 @@
         <v>7707248092295</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>25000</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 20, CategoryId= 2, EanCode= "7707248092295", Description= "Vino tinto",  Price= 25000,  Unit= "Botella (750 ml)"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248092295','Red wine',25000,'Bottle (750ml)');</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 20, CategoryId= 2, EanCode= "7707248092295", Description= "Red wine",  Price= 25000,  Unit= "Bottle (750ml)"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1687,20 +1810,24 @@
         <v>7707248095814</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>35000</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 21, CategoryId= 2, EanCode= "7707248095814", Description= "Licor de ron",  Price= 35000,  Unit= "Botella (750 ml)"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248095814','Rum Liqueur',35000,'Bottle (750ml)');</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 21, CategoryId= 2, EanCode= "7707248095814", Description= "Rum Liqueur",  Price= 35000,  Unit= "Bottle (750ml)"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1711,20 +1838,24 @@
         <v>7707248102482</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>65000</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 22, CategoryId= 2, EanCode= "7707248102482", Description= "Whisky",  Price= 65000,  Unit= "Botella (750 ml)"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248102482','Whiskey',65000,'Bottle (750ml)');</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 22, CategoryId= 2, EanCode= "7707248102482", Description= "Whiskey",  Price= 65000,  Unit= "Bottle (750ml)"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1735,20 +1866,24 @@
         <v>7707248103717</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 23, CategoryId= 2, EanCode= "7707248103717", Description= "Refresco de naranja",  Price= 1800,  Unit= "Botella (600 ml)"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248103717','Orange soda',1800,'Bottle (600ml)');</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 23, CategoryId= 2, EanCode= "7707248103717", Description= "Orange soda",  Price= 1800,  Unit= "Bottle (600ml)"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1759,20 +1894,24 @@
         <v>7707248105186</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>3200</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 24, CategoryId= 2, EanCode= "7707248105186", Description= "Agua con gas",  Price= 3200,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(2,'7707248105186','Soda water',3200,'Bottle (500ml)');</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 24, CategoryId= 2, EanCode= "7707248105186", Description= "Soda water",  Price= 3200,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1783,20 +1922,24 @@
         <v>7707248113426</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>6250</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 25, CategoryId= 3, EanCode= "7707248113426", Description= "Papel higiénico",  Price= 6250,  Unit= "Rollo (4 unidades)"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248113426','Toilet paper',6250,'Roll (4 units)');</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 25, CategoryId= 3, EanCode= "7707248113426", Description= "Toilet paper",  Price= 6250,  Unit= "Roll (4 units)"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1807,20 +1950,24 @@
         <v>7707248113846</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>12500</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 26, CategoryId= 3, EanCode= "7707248113846", Description= "Jabón de tocador",  Price= 12500,  Unit= "Barra (100 g)"},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248113846','Toilet soap',12500,'Bar (100g)');</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 26, CategoryId= 3, EanCode= "7707248113846", Description= "Toilet soap",  Price= 12500,  Unit= "Bar (100g)"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1831,20 +1978,24 @@
         <v>7707248118216</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>8900</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 27, CategoryId= 3, EanCode= "7707248118216", Description= "Desodorante",  Price= 8900,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248118216','Deodorant',8900,'Unit');</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 27, CategoryId= 3, EanCode= "7707248118216", Description= "Deodorant",  Price= 8900,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1855,20 +2006,24 @@
         <v>7707248132236</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>13200</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 28, CategoryId= 3, EanCode= "7707248132236", Description= "Champú",  Price= 13200,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248132236','Shampoo',13200,'Bottle (500ml)');</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 28, CategoryId= 3, EanCode= "7707248132236", Description= "Shampoo",  Price= 13200,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1879,20 +2034,24 @@
         <v>7707248135794</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>12100</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 29, CategoryId= 3, EanCode= "7707248135794", Description= "Acondicionador",  Price= 12100,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248135794','Conditioner',12100,'Bottle (500ml)');</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 29, CategoryId= 3, EanCode= "7707248135794", Description= "Conditioner",  Price= 12100,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1903,20 +2062,24 @@
         <v>7707248143522</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>14000</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 30, CategoryId= 3, EanCode= "7707248143522", Description= "Crema dental",  Price= 14000,  Unit= "Tubo (120 g)"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248143522','Toothpaste',14000,'Tube (120g)');</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 30, CategoryId= 3, EanCode= "7707248143522", Description= "Toothpaste",  Price= 14000,  Unit= "Tube (120g)"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1927,20 +2090,24 @@
         <v>7707248144635</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>23000</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 31, CategoryId= 3, EanCode= "7707248144635", Description= "Enjuague bucal",  Price= 23000,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248144635','Mouthwash',23000,'Bottle (500ml)');</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 31, CategoryId= 3, EanCode= "7707248144635", Description= "Mouthwash",  Price= 23000,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1951,20 +2118,24 @@
         <v>7707248159844</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>9500</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 32, CategoryId= 3, EanCode= "7707248159844", Description= "Toallas femeninas",  Price= 9500,  Unit= "Paquete (10 unidades)"},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248159844','Feminine towels',9500,'Package (10 units)');</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 32, CategoryId= 3, EanCode= "7707248159844", Description= "Feminine towels",  Price= 9500,  Unit= "Package (10 units)"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1975,20 +2146,24 @@
         <v>7707248160048</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>12500</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 33, CategoryId= 3, EanCode= "7707248160048", Description= "Papel absorbente",  Price= 12500,  Unit= "Rollo (50 hojas)"},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248160048','Absorbent paper',12500,'Roll (50 sheets)');</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 33, CategoryId= 3, EanCode= "7707248160048", Description= "Absorbent paper",  Price= 12500,  Unit= "Roll (50 sheets)"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1999,20 +2174,24 @@
         <v>7707248162400</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>16250</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 34, CategoryId= 3, EanCode= "7707248162400", Description= "Detergente para ropa",  Price= 16250,  Unit= "Botella (1 litro)"},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248162400','Clothes detergent',16250,'Bottle (1 liter)');</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 34, CategoryId= 3, EanCode= "7707248162400", Description= "Clothes detergent",  Price= 16250,  Unit= "Bottle (1 liter)"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2023,20 +2202,24 @@
         <v>7707248166903</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>1530</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 35, CategoryId= 3, EanCode= "7707248166903", Description= "Suavizante de telas",  Price= 1530,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248166903','Fabric softener',1530,'Bottle (500ml)');</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 35, CategoryId= 3, EanCode= "7707248166903", Description= "Fabric softener",  Price= 1530,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2047,20 +2230,24 @@
         <v>7707248169331</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>8600</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 36, CategoryId= 3, EanCode= "7707248169331", Description= "Limpiador multiusos",  Price= 8600,  Unit= "Botella (500 ml)"},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(3,'7707248169331','Multipurpose Cleaner',8600,'Bottle (500ml)');</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 36, CategoryId= 3, EanCode= "7707248169331", Description= "Multipurpose Cleaner",  Price= 8600,  Unit= "Bottle (500ml)"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2071,20 +2258,24 @@
         <v>7707248170443</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <v>25000</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 37, CategoryId= 4, EanCode= "7707248170443", Description= "Camisa de algodón",  Price= 25000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248170443','Cotton shirt',25000,'Unit');</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 37, CategoryId= 4, EanCode= "7707248170443", Description= "Cotton shirt",  Price= 25000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2095,20 +2286,24 @@
         <v>7707248173628</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>30000</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 38, CategoryId= 4, EanCode= "7707248173628", Description= "Pantalón de mezclilla",  Price= 30000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248173628','Blue jeans',30000,'Unit');</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 38, CategoryId= 4, EanCode= "7707248173628", Description= "Blue jeans",  Price= 30000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2119,20 +2314,24 @@
         <v>7707248179002</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E40">
         <v>15000</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 39, CategoryId= 4, EanCode= "7707248179002", Description= "Camiseta",  Price= 15000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248179002','T-shirt',15000,'Unit');</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 39, CategoryId= 4, EanCode= "7707248179002", Description= "T-shirt",  Price= 15000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2143,20 +2342,24 @@
         <v>7707248186444</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>40000</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 40, CategoryId= 4, EanCode= "7707248186444", Description= "Vestido",  Price= 40000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248186444','Dress',40000,'Unit');</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 40, CategoryId= 4, EanCode= "7707248186444", Description= "Dress",  Price= 40000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2167,20 +2370,24 @@
         <v>7707248187762</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E42">
         <v>20000</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 41, CategoryId= 4, EanCode= "7707248187762", Description= "Blusa",  Price= 20000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248187762','Blouse',20000,'Unit');</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 41, CategoryId= 4, EanCode= "7707248187762", Description= "Blouse",  Price= 20000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2191,20 +2398,24 @@
         <v>7707248194784</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>25000</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 42, CategoryId= 4, EanCode= "7707248194784", Description= "Falda",  Price= 25000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248194784','Skirt',25000,'Unit');</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 42, CategoryId= 4, EanCode= "7707248194784", Description= "Skirt",  Price= 25000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2215,20 +2426,24 @@
         <v>7707248196207</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>35000</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 43, CategoryId= 4, EanCode= "7707248196207", Description= "Traje de baño",  Price= 35000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248196207','Swimsuit',35000,'Unit');</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 43, CategoryId= 4, EanCode= "7707248196207", Description= "Swimsuit",  Price= 35000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2239,20 +2454,24 @@
         <v>7707248197983</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>5000</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 44, CategoryId= 4, EanCode= "7707248197983", Description= "Calcetines",  Price= 5000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248197983','Socks',5000,'Pair');</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 44, CategoryId= 4, EanCode= "7707248197983", Description= "Socks",  Price= 5000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2263,20 +2482,24 @@
         <v>7707248198935</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>50000</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 45, CategoryId= 4, EanCode= "7707248198935", Description= "Zapatos deportivos",  Price= 50000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248198935','Sports shoes',50000,'Pair');</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 45, CategoryId= 4, EanCode= "7707248198935", Description= "Sports shoes",  Price= 50000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2287,20 +2510,24 @@
         <v>7707248201567</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>100000</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 46, CategoryId= 4, EanCode= "7707248201567", Description= "Chaqueta de cuero",  Price= 100000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248201567','Leather jacket',100000,'Unit');</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 46, CategoryId= 4, EanCode= "7707248201567", Description= "Leather jacket",  Price= 100000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2311,20 +2538,24 @@
         <v>7707248202274</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E48">
         <v>10000</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 47, CategoryId= 4, EanCode= "7707248202274", Description= "Gorra",  Price= 10000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248202274','Cap',10000,'Unit');</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 47, CategoryId= 4, EanCode= "7707248202274", Description= "Cap",  Price= 10000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2335,20 +2566,24 @@
         <v>7707248202854</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>15000</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 48, CategoryId= 4, EanCode= "7707248202854", Description= "Pantuflas",  Price= 15000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(4,'7707248202854','Slippers',15000,'Pair');</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 48, CategoryId= 4, EanCode= "7707248202854", Description= "Slippers",  Price= 15000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2359,7 +2594,7 @@
         <v>7707248205671</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1300</v>
@@ -2369,10 +2604,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 49, CategoryId= 5, EanCode= "7707248205671", Description= "Paracetamol",  Price= 1300,  Unit= "Caja (10 tabs de 500 mg)"},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248205671','Paracetamol',1300,'Box (10 tabs of 500 mg)');</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 49, CategoryId= 5, EanCode= "7707248205671", Description= "Paracetamol",  Price= 1300,  Unit= "Box (10 tabs of 500 mg)"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2383,7 +2622,7 @@
         <v>7707248206906</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E51">
         <v>14000</v>
@@ -2393,10 +2632,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 50, CategoryId= 5, EanCode= "7707248206906", Description= "Ibuprofeno",  Price= 14000,  Unit= "Caja (20 tabs de 400 mg)"},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248206906','Ibuprofen',14000,'Box (20 tabs of 400 mg)');</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 50, CategoryId= 5, EanCode= "7707248206906", Description= "Ibuprofen",  Price= 14000,  Unit= "Box (20 tabs of 400 mg)"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2407,7 +2650,7 @@
         <v>7707248211078</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E52">
         <v>12500</v>
@@ -2417,10 +2660,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 51, CategoryId= 5, EanCode= "7707248211078", Description= "Aspirina",  Price= 12500,  Unit= "Caja (30 tabs de 500 mg)"},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248211078','Aspirin',12500,'Box (30 tabs of 500 mg)');</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 51, CategoryId= 5, EanCode= "7707248211078", Description= "Aspirin",  Price= 12500,  Unit= "Box (30 tabs of 500 mg)"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2431,7 +2678,7 @@
         <v>7707248211306</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>15000</v>
@@ -2441,10 +2688,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 52, CategoryId= 5, EanCode= "7707248211306", Description= "Loratadina",  Price= 15000,  Unit= "Caja (10 tabs de 10 mg)"},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248211306','Loratadine',15000,'Box (10 tabs of 10 mg)');</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 52, CategoryId= 5, EanCode= "7707248211306", Description= "Loratadine",  Price= 15000,  Unit= "Box (10 tabs of 10 mg)"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2455,7 +2706,7 @@
         <v>7707248215472</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E54">
         <v>2000</v>
@@ -2465,10 +2716,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 53, CategoryId= 5, EanCode= "7707248215472", Description= "Dipirona",  Price= 2000,  Unit= "Caja (20 tabs de 500 mg)"},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248215472','Dipyrone',2000,'Box (20 tabs of 500 mg)');</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 53, CategoryId= 5, EanCode= "7707248215472", Description= "Dipyrone",  Price= 2000,  Unit= "Box (20 tabs of 500 mg)"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2479,7 +2734,7 @@
         <v>7707248232608</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E55">
         <v>6000</v>
@@ -2489,10 +2744,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 54, CategoryId= 5, EanCode= "7707248232608", Description= "Omeprazol",  Price= 6000,  Unit= "Caja (14 cáps de 20 mg)"},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248232608','Omeprazole',6000,'Box (14 capsules of 20 mg)');</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 54, CategoryId= 5, EanCode= "7707248232608", Description= "Omeprazole",  Price= 6000,  Unit= "Box (14 capsules of 20 mg)"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2503,7 +2762,7 @@
         <v>7707248237528</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E56">
         <v>8000</v>
@@ -2513,10 +2772,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 55, CategoryId= 5, EanCode= "7707248237528", Description= "Amoxicilina",  Price= 8000,  Unit= "Caja (20 cáps de 500 mg)"},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248237528','Amoxicillin',8000,'Box (20 capsules of 500 mg)');</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 55, CategoryId= 5, EanCode= "7707248237528", Description= "Amoxicillin",  Price= 8000,  Unit= "Box (20 capsules of 500 mg)"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2527,7 +2790,7 @@
         <v>7707248240269</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <v>10000</v>
@@ -2537,10 +2800,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 56, CategoryId= 5, EanCode= "7707248240269", Description= "Paroxetina",  Price= 10000,  Unit= "Caja (30 tabs de 20 mg)"},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248240269','Paroxetine',10000,'Box (30 tabs of 20 mg)');</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 56, CategoryId= 5, EanCode= "7707248240269", Description= "Paroxetine",  Price= 10000,  Unit= "Box (30 tabs of 20 mg)"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2551,7 +2818,7 @@
         <v>7707248249927</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E58">
         <v>4500</v>
@@ -2561,10 +2828,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 57, CategoryId= 5, EanCode= "7707248249927", Description= "Metformina",  Price= 4500,  Unit= "Caja (30 tabs de 850 mg)"},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248249927','Morphine',4500,'Box (30 tabs of 850 mg)');</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 57, CategoryId= 5, EanCode= "7707248249927", Description= "Morphine",  Price= 4500,  Unit= "Box (30 tabs of 850 mg)"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2575,7 +2846,7 @@
         <v>7707248250978</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E59">
         <v>12000</v>
@@ -2585,10 +2856,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 58, CategoryId= 5, EanCode= "7707248250978", Description= "Atorvastatina",  Price= 12000,  Unit= "Caja (30 tabs de 10 mg)"},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248250978','Atorvastatin',12000,'Box (30 tabs of 10 mg)');</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 58, CategoryId= 5, EanCode= "7707248250978", Description= "Atorvastatin",  Price= 12000,  Unit= "Box (30 tabs of 10 mg)"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2599,7 +2874,7 @@
         <v>7707248251173</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E60">
         <v>3500</v>
@@ -2609,10 +2884,14 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 59, CategoryId= 5, EanCode= "7707248251173", Description= "Vitamina C",  Price= 3500,  Unit= "Caja (30 tabs de 500 mg)"},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248251173','Vitamin C',3500,'Box (30 tabs of 500 mg)');</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 59, CategoryId= 5, EanCode= "7707248251173", Description= "Vitamin C",  Price= 3500,  Unit= "Box (30 tabs of 500 mg)"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2623,7 +2902,7 @@
         <v>7707248252903</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E61">
         <v>3000</v>
@@ -2633,10 +2912,14 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 60, CategoryId= 5, EanCode= "7707248252903", Description= "Clorfenamina",  Price= 3000,  Unit= "Caja (10 tabs de 4 mg)"},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(5,'7707248252903','Chlorphenamine',3000,'Box (10 tabs of 4 mg)');</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 60, CategoryId= 5, EanCode= "7707248252903", Description= "Chlorphenamine",  Price= 3000,  Unit= "Box (10 tabs of 4 mg)"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2647,20 +2930,24 @@
         <v>7707248259735</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <v>32000</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 61, CategoryId= 6, EanCode= "7707248259735", Description= "Martillo",  Price= 32000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248259735','Hammer',32000,'Unit');</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 61, CategoryId= 6, EanCode= "7707248259735", Description= "Hammer",  Price= 32000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2671,20 +2958,24 @@
         <v>7707248269062</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E63">
         <v>13500</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 62, CategoryId= 6, EanCode= "7707248269062", Description= "Destornillador",  Price= 13500,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248269062','Screwdriver',13500,'Unit');</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 62, CategoryId= 6, EanCode= "7707248269062", Description= "Screwdriver",  Price= 13500,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2695,20 +2986,24 @@
         <v>7707248272253</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E64">
         <v>50000</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 63, CategoryId= 6, EanCode= "7707248272253", Description= "Taladro",  Price= 50000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248272253','Drill',50000,'Unit');</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 63, CategoryId= 6, EanCode= "7707248272253", Description= "Drill",  Price= 50000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2719,20 +3014,24 @@
         <v>7707248284980</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E65">
         <v>70000</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 64, CategoryId= 6, EanCode= "7707248284980", Description= "Sierra circular",  Price= 70000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248284980','circular saw',70000,'Unit');</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 64, CategoryId= 6, EanCode= "7707248284980", Description= "circular saw",  Price= 70000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2743,20 +3042,24 @@
         <v>7707248290462</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E66">
         <v>8000</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>new Product() {Id= 65, CategoryId= 6, EanCode= "7707248290462", Description= "Llave inglesa",  Price= 8000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248290462','Wrench',8000,'Unit');</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>new Product() {Id= 65, CategoryId= 6, EanCode= "7707248290462", Description= "Wrench",  Price= 8000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2767,20 +3070,24 @@
         <v>7707248291223</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E67">
         <v>4000</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="1">_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A67,", ", $B$1,"= ",B67,", ", "",$C$1,"= """,C67,""", ",$D$1,"= """,D67,""",  ",$E$1,"= ",E67,",  ",$F$1,"= """,F67,"""},")</f>
-        <v>new Product() {Id= 66, CategoryId= 6, EanCode= "7707248291223", Description= "Pinzas",  Price= 4000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G67:G130" si="2">_xlfn.CONCAT("INSERT INTO Products (",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,") VALUES(",B67,",'",C67,"','",D67,"',",E67,",'",F67,"');")</f>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248291223','tweezers',4000,'Unit');</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="3">_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A67,", ", $B$1,"= ",B67,", ", "",$C$1,"= """,C67,""", ",$D$1,"= """,D67,""",  ",$E$1,"= ",E67,",  ",$F$1,"= """,F67,"""},")</f>
+        <v>new Product() {Id= 66, CategoryId= 6, EanCode= "7707248291223", Description= "tweezers",  Price= 4000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2791,20 +3098,24 @@
         <v>7707248292831</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E68">
         <v>13500</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 67, CategoryId= 6, EanCode= "7707248292831", Description= "Cinta métrica",  Price= 13500,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248292831','measuring tape',13500,'Unit');</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 67, CategoryId= 6, EanCode= "7707248292831", Description= "measuring tape",  Price= 13500,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2815,20 +3126,24 @@
         <v>7707248298369</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E69">
         <v>7000</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 68, CategoryId= 6, EanCode= "7707248298369", Description= "Nivel de burbuja",  Price= 7000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248298369','Bubble level',7000,'Unit');</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 68, CategoryId= 6, EanCode= "7707248298369", Description= "Bubble level",  Price= 7000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2839,20 +3154,24 @@
         <v>7707248308082</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E70">
         <v>12000</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 69, CategoryId= 6, EanCode= "7707248308082", Description= "Serrucho",  Price= 12000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248308082','saw',12000,'Unit');</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 69, CategoryId= 6, EanCode= "7707248308082", Description= "saw",  Price= 12000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2863,20 +3182,24 @@
         <v>7707248319651</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E71">
         <v>10000</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 70, CategoryId= 6, EanCode= "7707248319651", Description= "Llave de tubo",  Price= 10000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248319651','pipe wrench',10000,'Unit');</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 70, CategoryId= 6, EanCode= "7707248319651", Description= "pipe wrench",  Price= 10000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2887,20 +3210,24 @@
         <v>7707248328653</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E72">
         <v>25000</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 71, CategoryId= 6, EanCode= "7707248328653", Description= "Pistola de calor",  Price= 25000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248328653','heat gun',25000,'Unit');</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 71, CategoryId= 6, EanCode= "7707248328653", Description= "heat gun",  Price= 25000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2911,20 +3238,24 @@
         <v>7707248333589</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <v>60000</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 72, CategoryId= 6, EanCode= "7707248333589", Description= "Lijadora de banda",  Price= 60000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(6,'7707248333589','Belt sander',60000,'Unit');</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 72, CategoryId= 6, EanCode= "7707248333589", Description= "Belt sander",  Price= 60000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2935,20 +3266,24 @@
         <v>7707248333848</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E74">
         <v>2500</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 73, CategoryId= 7, EanCode= "7707248333848", Description= "Manzanas",  Price= 2500,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248333848','apples',2500,'Kilogram');</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 73, CategoryId= 7, EanCode= "7707248333848", Description= "apples",  Price= 2500,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2959,20 +3294,24 @@
         <v>7707248336825</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E75">
         <v>1250</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 74, CategoryId= 7, EanCode= "7707248336825", Description= "Plátanos",  Price= 1250,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248336825','Bananas',1250,'Kilogram');</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 74, CategoryId= 7, EanCode= "7707248336825", Description= "Bananas",  Price= 1250,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2983,20 +3322,24 @@
         <v>7707248350807</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E76">
         <v>2000</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 75, CategoryId= 7, EanCode= "7707248350807", Description= "Naranjas",  Price= 2000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248350807','oranges',2000,'Kilogram');</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 75, CategoryId= 7, EanCode= "7707248350807", Description= "oranges",  Price= 2000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3007,20 +3350,24 @@
         <v>7707248357646</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E77">
         <v>4000</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 76, CategoryId= 7, EanCode= "7707248357646", Description= "Fresas",  Price= 4000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248357646','Strawberries',4000,'Kilogram');</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 76, CategoryId= 7, EanCode= "7707248357646", Description= "Strawberries",  Price= 4000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3031,20 +3378,24 @@
         <v>7707248362169</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E78">
         <v>2500</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 77, CategoryId= 7, EanCode= "7707248362169", Description= "Piñas",  Price= 2500,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248362169','pineapples',2500,'Unit');</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 77, CategoryId= 7, EanCode= "7707248362169", Description= "pineapples",  Price= 2500,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3055,20 +3406,24 @@
         <v>7707248363609</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E79">
         <v>5000</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 78, CategoryId= 7, EanCode= "7707248363609", Description= "Sandías",  Price= 5000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248363609','watermelons',5000,'Unit');</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 78, CategoryId= 7, EanCode= "7707248363609", Description= "watermelons",  Price= 5000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3079,20 +3434,24 @@
         <v>7707248367690</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E80">
         <v>3500</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 79, CategoryId= 7, EanCode= "7707248367690", Description= "Melones",  Price= 3500,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248367690','Melons',3500,'Unit');</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 79, CategoryId= 7, EanCode= "7707248367690", Description= "Melons",  Price= 3500,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3103,20 +3462,24 @@
         <v>7707248376319</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E81">
         <v>2500</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 80, CategoryId= 7, EanCode= "7707248376319", Description= "Mangos",  Price= 2500,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248376319','mangoes',2500,'Kilogram');</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 80, CategoryId= 7, EanCode= "7707248376319", Description= "mangoes",  Price= 2500,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3127,20 +3490,24 @@
         <v>7707248377767</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E82">
         <v>300</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 81, CategoryId= 7, EanCode= "7707248377767", Description= "Uvas",  Price= 300,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248377767','grapes',300,'Kilogram');</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 81, CategoryId= 7, EanCode= "7707248377767", Description= "grapes",  Price= 300,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3151,20 +3518,24 @@
         <v>7707248386516</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E83">
         <v>2000</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 82, CategoryId= 7, EanCode= "7707248386516", Description= "Papayas",  Price= 2000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248386516','papayas',2000,'Kilogram');</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 82, CategoryId= 7, EanCode= "7707248386516", Description= "papayas",  Price= 2000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3175,20 +3546,24 @@
         <v>7707248387643</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E84">
         <v>6000</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 83, CategoryId= 7, EanCode= "7707248387643", Description= "Kiwis",  Price= 6000,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248387643','kiwis',6000,'Kilogram');</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 83, CategoryId= 7, EanCode= "7707248387643", Description= "kiwis",  Price= 6000,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3199,20 +3574,24 @@
         <v>7707248389180</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E85">
         <v>1500</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 84, CategoryId= 7, EanCode= "7707248389180", Description= "Limones",  Price= 1500,  Unit= "Kilogramo"},</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(7,'7707248389180','lemons',1500,'Kilogram');</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 84, CategoryId= 7, EanCode= "7707248389180", Description= "lemons",  Price= 1500,  Unit= "Kilogram"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3223,20 +3602,24 @@
         <v>7707248392746</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E86">
         <v>50000</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 85, CategoryId= 8, EanCode= "7707248392746", Description= "Anillo de oro blanco",  Price= 50000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248392746','white gold ring',50000,'Unit');</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 85, CategoryId= 8, EanCode= "7707248392746", Description= "white gold ring",  Price= 50000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3247,20 +3630,24 @@
         <v>7707248410266</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E87">
         <v>25000</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 86, CategoryId= 8, EanCode= "7707248410266", Description= "Aretes de plata con zirconia",  Price= 25000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248410266','Silver earrings with zircons',25000,'Pair');</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 86, CategoryId= 8, EanCode= "7707248410266", Description= "Silver earrings with zircons",  Price= 25000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3271,20 +3658,24 @@
         <v>7707248417340</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E88">
         <v>200000</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 87, CategoryId= 8, EanCode= "7707248417340", Description= "Pulsera de perlas",  Price= 200000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248417340','Pearl bracelet',200000,'Unit');</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 87, CategoryId= 8, EanCode= "7707248417340", Description= "Pearl bracelet",  Price= 200000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3295,20 +3686,24 @@
         <v>7707248418330</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E89">
         <v>80000</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 88, CategoryId= 8, EanCode= "7707248418330", Description= "Collar de plata con dije de corazón",  Price= 80000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248418330','Silver necklace with heart pendant.',80000,'Unit');</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 88, CategoryId= 8, EanCode= "7707248418330", Description= "Silver necklace with heart pendant.",  Price= 80000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3319,20 +3714,24 @@
         <v>7707248420050</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E90">
         <v>200000</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 89, CategoryId= 8, EanCode= "7707248420050", Description= "Anillo de compromiso con diamante",  Price= 200000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248420050','Diamond engagement ring',200000,'Unit');</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 89, CategoryId= 8, EanCode= "7707248420050", Description= "Diamond engagement ring",  Price= 200000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3343,20 +3742,24 @@
         <v>7707248420630</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E91">
         <v>150000</v>
       </c>
       <c r="F91" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 90, CategoryId= 8, EanCode= "7707248420630", Description= "Aretes de oro amarillo con perlas",  Price= 150000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248420630','Yellow gold earrings with pearls',150000,'Pair');</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 90, CategoryId= 8, EanCode= "7707248420630", Description= "Yellow gold earrings with pearls",  Price= 150000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3367,20 +3770,24 @@
         <v>7707248442823</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E92">
         <v>300000</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 91, CategoryId= 8, EanCode= "7707248442823", Description= "Pulsera de oro rosa con dije de inicial",  Price= 300000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248442823','Rose gold bracelet with initial charm',300000,'Unit');</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 91, CategoryId= 8, EanCode= "7707248442823", Description= "Rose gold bracelet with initial charm",  Price= 300000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3391,20 +3798,24 @@
         <v>7707248444063</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E93">
         <v>1000000</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 92, CategoryId= 8, EanCode= "7707248444063", Description= "Collar de oro blanco con diamantes",  Price= 1000000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248444063','White gold necklace with diamonds.',1000000,'Unit');</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 92, CategoryId= 8, EanCode= "7707248444063", Description= "White gold necklace with diamonds.",  Price= 1000000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3415,20 +3826,24 @@
         <v>7707248486650</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E94">
         <v>60000</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 93, CategoryId= 8, EanCode= "7707248486650", Description= "Anillo de plata con piedra de ópalo",  Price= 60000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248486650','Silver ring with opal stone',60000,'Unit');</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 93, CategoryId= 8, EanCode= "7707248486650", Description= "Silver ring with opal stone",  Price= 60000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3439,20 +3854,24 @@
         <v>7707248488425</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E95">
         <v>400000</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 94, CategoryId= 8, EanCode= "7707248488425", Description= "Aretes de oro blanco con diamantes",  Price= 400000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248488425','White gold earrings with diamonds',400000,'Pair');</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 94, CategoryId= 8, EanCode= "7707248488425", Description= "White gold earrings with diamonds",  Price= 400000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3463,20 +3882,24 @@
         <v>7707248494204</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E96">
         <v>250000</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 95, CategoryId= 8, EanCode= "7707248494204", Description= "Pulsera de oro amarillo con dijes de corazón",  Price= 250000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248494204','Yellow gold bracelet with heart charms.',250000,'Unit');</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 95, CategoryId= 8, EanCode= "7707248494204", Description= "Yellow gold bracelet with heart charms.",  Price= 250000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3487,20 +3910,24 @@
         <v>7707248496123</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E97">
         <v>40000</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 96, CategoryId= 8, EanCode= "7707248496123", Description= "Collar de plata con colgante de luna",  Price= 40000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(8,'7707248496123','Silver necklace with moon pendant.',40000,'Unit');</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 96, CategoryId= 8, EanCode= "7707248496123", Description= "Silver necklace with moon pendant.",  Price= 40000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3511,20 +3938,24 @@
         <v>7707248499001</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E98">
         <v>9000000</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 97, CategoryId= 9, EanCode= "7707248499001", Description= "Laptop Lenovo",  Price= 9000000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248499001','lenovo laptop',9000000,'Unit');</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 97, CategoryId= 9, EanCode= "7707248499001", Description= "lenovo laptop",  Price= 9000000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3535,20 +3966,24 @@
         <v>7707248501261</v>
       </c>
       <c r="D99" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E99">
         <v>11000000</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 98, CategoryId= 9, EanCode= "7707248501261", Description= "Teléfono iPhone 13",  Price= 11000000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248501261','iPhone 13 phone',11000000,'Unit');</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 98, CategoryId= 9, EanCode= "7707248501261", Description= "iPhone 13 phone",  Price= 11000000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3559,20 +3994,24 @@
         <v>7707248508628</v>
       </c>
       <c r="D100" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E100">
         <v>600000</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 99, CategoryId= 9, EanCode= "7707248508628", Description= "Tableta Samsung Galaxy Tab S7",  Price= 600000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248508628','Samsung Galaxy Tab S7 tablet',600000,'Unit');</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 99, CategoryId= 9, EanCode= "7707248508628", Description= "Samsung Galaxy Tab S7 tablet",  Price= 600000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3583,20 +4022,24 @@
         <v>7707248518092</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="E101">
         <v>700000</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 100, CategoryId= 9, EanCode= "7707248518092", Description= "Televisor LG 55 pulgadas 4K",  Price= 700000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248518092','LG 55 inch 4K TV',700000,'Unit');</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 100, CategoryId= 9, EanCode= "7707248518092", Description= "LG 55 inch 4K TV",  Price= 700000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3607,20 +4050,24 @@
         <v>7707248523973</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E102">
         <v>150000</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 101, CategoryId= 9, EanCode= "7707248523973", Description= "Auriculares inalámbricos Sony",  Price= 150000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248523973','Sony wireless headphones',150000,'Pair');</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 101, CategoryId= 9, EanCode= "7707248523973", Description= "Sony wireless headphones",  Price= 150000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3631,20 +4078,24 @@
         <v>7707248525854</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E103">
         <v>80000</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 102, CategoryId= 9, EanCode= "7707248525854", Description= "Altavoz Bluetooth JBL",  Price= 80000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248525854','JBL Bluetooth Speaker',80000,'Unit');</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 102, CategoryId= 9, EanCode= "7707248525854", Description= "JBL Bluetooth Speaker",  Price= 80000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3655,20 +4106,24 @@
         <v>7707248528381</v>
       </c>
       <c r="D104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E104">
         <v>500000</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 103, CategoryId= 9, EanCode= "7707248528381", Description= "Consola de videojuegos PlayStation 5",  Price= 500000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248528381','PlayStation 5 video game console',500000,'Unit');</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 103, CategoryId= 9, EanCode= "7707248528381", Description= "PlayStation 5 video game console",  Price= 500000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3679,20 +4134,24 @@
         <v>7707248533309</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E105">
         <v>2500000</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 104, CategoryId= 9, EanCode= "7707248533309", Description= "Cámara Canon EOS R6",  Price= 2500000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248533309','Canon EOS R6 Camera',2500000,'Unit');</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 104, CategoryId= 9, EanCode= "7707248533309", Description= "Canon EOS R6 Camera",  Price= 2500000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3703,20 +4162,24 @@
         <v>7707248537314</v>
       </c>
       <c r="D106" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="E106">
         <v>400000</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 105, CategoryId= 9, EanCode= "7707248537314", Description= "Monitor Dell 27 pulgadas",  Price= 400000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248537314','Dell 27 inch monitor',400000,'Unit');</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 105, CategoryId= 9, EanCode= "7707248537314", Description= "Dell 27 inch monitor",  Price= 400000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3727,20 +4190,24 @@
         <v>7707248538366</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E107">
         <v>500000</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 106, CategoryId= 9, EanCode= "7707248538366", Description= "Router WiFi TP-Link",  Price= 500000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248538366','TP-Link WiFi Router',500000,'Unit');</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 106, CategoryId= 9, EanCode= "7707248538366", Description= "TP-Link WiFi Router",  Price= 500000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3751,20 +4218,24 @@
         <v>7707248547405</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E108">
         <v>100000</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 107, CategoryId= 9, EanCode= "7707248547405", Description= "Disco duro externo Seagate 2TB",  Price= 100000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248547405','Seagate 2TB external hard drive',100000,'Unit');</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 107, CategoryId= 9, EanCode= "7707248547405", Description= "Seagate 2TB external hard drive",  Price= 100000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3775,20 +4246,24 @@
         <v>7707248550245</v>
       </c>
       <c r="D109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E109">
         <v>3000000</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 108, CategoryId= 9, EanCode= "7707248550245", Description= "Impresora HP OfficeJet Pro 9015",  Price= 3000000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(9,'7707248550245','HP OfficeJet Pro 9015 Printer',3000000,'Unit');</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 108, CategoryId= 9, EanCode= "7707248550245", Description= "HP OfficeJet Pro 9015 Printer",  Price= 3000000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3799,20 +4274,24 @@
         <v>7707248555172</v>
       </c>
       <c r="D110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E110">
         <v>20000</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 109, CategoryId= 10, EanCode= "7707248555172", Description= "Muñeca Barbie",  Price= 20000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248555172','Barbie doll',20000,'Unit');</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 109, CategoryId= 10, EanCode= "7707248555172", Description= "Barbie doll",  Price= 20000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3823,20 +4302,24 @@
         <v>7707248556032</v>
       </c>
       <c r="D111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E111">
         <v>50000</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 110, CategoryId= 10, EanCode= "7707248556032", Description= "Coche de carreras de control remoto",  Price= 50000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248556032','Remote control racing car',50000,'Unit');</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 110, CategoryId= 10, EanCode= "7707248556032", Description= "Remote control racing car",  Price= 50000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3847,20 +4330,24 @@
         <v>7707248559019</v>
       </c>
       <c r="D112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E112">
         <v>30000</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 111, CategoryId= 10, EanCode= "7707248559019", Description= "Set de bloques de construcción LEGO",  Price= 30000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248559019','LEGO building blocks set',30000,'Unit');</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 111, CategoryId= 10, EanCode= "7707248559019", Description= "LEGO building blocks set",  Price= 30000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3871,20 +4358,24 @@
         <v>7707248565324</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E113">
         <v>25000</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 112, CategoryId= 10, EanCode= "7707248565324", Description= "Juego de mesa Monopoly",  Price= 25000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248565324','Monopoly board game',25000,'Unit');</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 112, CategoryId= 10, EanCode= "7707248565324", Description= "Monopoly board game",  Price= 25000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3895,20 +4386,24 @@
         <v>7707248566741</v>
       </c>
       <c r="D114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E114">
         <v>15000</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 113, CategoryId= 10, EanCode= "7707248566741", Description= "Rompecabezas de 500 piezas",  Price= 15000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248566741','500 piece puzzle',15000,'Unit');</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 113, CategoryId= 10, EanCode= "7707248566741", Description= "500 piece puzzle",  Price= 15000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3919,20 +4414,24 @@
         <v>7707248568899</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E115">
         <v>10000</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 114, CategoryId= 10, EanCode= "7707248568899", Description= "Peluche de unicornio",  Price= 10000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248568899','unicorn plush',10000,'Unit');</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 114, CategoryId= 10, EanCode= "7707248568899", Description= "unicorn plush",  Price= 10000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3943,20 +4442,24 @@
         <v>7707248571851</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E116">
         <v>20000</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 115, CategoryId= 10, EanCode= "7707248571851", Description= "Set de pintura y dibujo para niños",  Price= 20000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248571851','Painting and drawing set for children',20000,'Unit');</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 115, CategoryId= 10, EanCode= "7707248571851", Description= "Painting and drawing set for children",  Price= 20000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3967,20 +4470,24 @@
         <v>7707248573138</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E117">
         <v>5000</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 116, CategoryId= 10, EanCode= "7707248573138", Description= "Libro para colorear de Disney",  Price= 5000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248573138','Disney Coloring Book',5000,'Unit');</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 116, CategoryId= 10, EanCode= "7707248573138", Description= "Disney Coloring Book",  Price= 5000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3991,20 +4498,24 @@
         <v>7707248573688</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E118">
         <v>15000</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 117, CategoryId= 10, EanCode= "7707248573688", Description= "Juguete de dinosaurio T-Rex",  Price= 15000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248573688','T-Rex Dinosaur Toy',15000,'Unit');</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 117, CategoryId= 10, EanCode= "7707248573688", Description= "T-Rex Dinosaur Toy",  Price= 15000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4015,20 +4526,24 @@
         <v>7707248579215</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E119">
         <v>10000</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 118, CategoryId= 10, EanCode= "7707248579215", Description= "Pelota de fútbol",  Price= 10000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248579215','Soccer ball',10000,'Unit');</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 118, CategoryId= 10, EanCode= "7707248579215", Description= "Soccer ball",  Price= 10000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4039,20 +4554,24 @@
         <v>7707248581799</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E120">
         <v>30000</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 119, CategoryId= 10, EanCode= "7707248581799", Description= "Juego de cocina de juguete",  Price= 30000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248581799','toy kitchen set',30000,'Unit');</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 119, CategoryId= 10, EanCode= "7707248581799", Description= "toy kitchen set",  Price= 30000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4063,20 +4582,24 @@
         <v>7707248590418</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E121">
         <v>8000</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 120, CategoryId= 10, EanCode= "7707248590418", Description= "Trompo de madera",  Price= 8000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(10,'7707248590418','Wooden spinning top',8000,'Unit');</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 120, CategoryId= 10, EanCode= "7707248590418", Description= "Wooden spinning top",  Price= 8000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4087,20 +4610,24 @@
         <v>7707248612165</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E122">
         <v>30000</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 121, CategoryId= 11, EanCode= "7707248612165", Description= "Bolsa de alimento para perro marca Pedigree",  Price= 30000,  Unit= "Bolsa de 7.5 kg"},</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248612165','Pedigree brand dog food bag',30000,'7.5kg bag');</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 121, CategoryId= 11, EanCode= "7707248612165", Description= "Pedigree brand dog food bag",  Price= 30000,  Unit= "7.5kg bag"},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4111,20 +4638,24 @@
         <v>7707248620580</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E123">
         <v>20000</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 122, CategoryId= 11, EanCode= "7707248620580", Description= "Bolsa de alimento para gato marca Whiskas",  Price= 20000,  Unit= "Bolsa de 2 kg"},</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248620580','Whiskas brand cat food bag',20000,'2kg bag');</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 122, CategoryId= 11, EanCode= "7707248620580", Description= "Whiskas brand cat food bag",  Price= 20000,  Unit= "2kg bag"},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4135,20 +4666,24 @@
         <v>7707248621204</v>
       </c>
       <c r="D124" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E124">
         <v>8000</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 123, CategoryId= 11, EanCode= "7707248621204", Description= "Juguete para perro de peluche",  Price= 8000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248621204','plush dog toy',8000,'Unit');</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 123, CategoryId= 11, EanCode= "7707248621204", Description= "plush dog toy",  Price= 8000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4159,20 +4694,24 @@
         <v>7707248626056</v>
       </c>
       <c r="D125" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E125">
         <v>5000</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 124, CategoryId= 11, EanCode= "7707248626056", Description= "Juguete para gato de cuerda",  Price= 5000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248626056','rope cat toy',5000,'Unit');</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 124, CategoryId= 11, EanCode= "7707248626056", Description= "rope cat toy",  Price= 5000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4183,20 +4722,24 @@
         <v>7707248627244</v>
       </c>
       <c r="D126" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E126">
         <v>50000</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 125, CategoryId= 11, EanCode= "7707248627244", Description= "Cama para mascota tamaño mediano",  Price= 50000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248627244','Medium size pet bed',50000,'Unit');</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 125, CategoryId= 11, EanCode= "7707248627244", Description= "Medium size pet bed",  Price= 50000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4207,20 +4750,24 @@
         <v>7707248629408</v>
       </c>
       <c r="D127" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E127">
         <v>15000</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 126, CategoryId= 11, EanCode= "7707248629408", Description= "Collar para perro ajustable",  Price= 15000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248629408','Adjustable dog collar',15000,'Unit');</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 126, CategoryId= 11, EanCode= "7707248629408", Description= "Adjustable dog collar",  Price= 15000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4231,20 +4778,24 @@
         <v>7707248631371</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E128">
         <v>20000</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 127, CategoryId= 11, EanCode= "7707248631371", Description= "Correa para perro de cuero",  Price= 20000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248631371','Leather dog leash.',20000,'Unit');</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 127, CategoryId= 11, EanCode= "7707248631371", Description= "Leather dog leash.",  Price= 20000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4255,20 +4806,24 @@
         <v>7707248631388</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E129">
         <v>10000</v>
       </c>
       <c r="F129" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 128, CategoryId= 11, EanCode= "7707248631388", Description= "Arena para gato marca Tidy Cats",  Price= 10000,  Unit= "Bolsa de 4 kg"},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248631388','Tidy Cats brand cat litter',10000,'4kg bag');</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 128, CategoryId= 11, EanCode= "7707248631388", Description= "Tidy Cats brand cat litter",  Price= 10000,  Unit= "4kg bag"},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4279,20 +4834,24 @@
         <v>7707248638172</v>
       </c>
       <c r="D130" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E130">
         <v>8000</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="1"/>
-        <v>new Product() {Id= 129, CategoryId= 11, EanCode= "7707248638172", Description= "Peine para pelo de mascota",  Price= 8000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248638172','Pet hair comb',8000,'Unit');</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="3"/>
+        <v>new Product() {Id= 129, CategoryId= 11, EanCode= "7707248638172", Description= "Pet hair comb",  Price= 8000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4303,20 +4862,24 @@
         <v>7707248642117</v>
       </c>
       <c r="D131" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E131">
         <v>6000</v>
       </c>
       <c r="F131" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G145" si="2">_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A131,", ", $B$1,"= ",B131,", ", "",$C$1,"= """,C131,""", ",$D$1,"= """,D131,""",  ",$E$1,"= ",E131,",  ",$F$1,"= """,F131,"""},")</f>
-        <v>new Product() {Id= 130, CategoryId= 11, EanCode= "7707248642117", Description= "Champú para perro marca Hartz",  Price= 6000,  Unit= "Botella de 18 oz"},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G131:G145" si="4">_xlfn.CONCAT("INSERT INTO Products (",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,") VALUES(",B131,",'",C131,"','",D131,"',",E131,",'",F131,"');")</f>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248642117','Hartz brand dog shampoo',6000,'18oz bottle');</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H145" si="5">_xlfn.CONCAT("new Product() ","{",$A$1,"= ",A131,", ", $B$1,"= ",B131,", ", "",$C$1,"= """,C131,""", ",$D$1,"= """,D131,""",  ",$E$1,"= ",E131,",  ",$F$1,"= """,F131,"""},")</f>
+        <v>new Product() {Id= 130, CategoryId= 11, EanCode= "7707248642117", Description= "Hartz brand dog shampoo",  Price= 6000,  Unit= "18oz bottle"},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4327,20 +4890,24 @@
         <v>7707248642278</v>
       </c>
       <c r="D132" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E132">
         <v>12000</v>
       </c>
       <c r="F132" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 131, CategoryId= 11, EanCode= "7707248642278", Description= "Arena de sílice para gato",  Price= 12000,  Unit= "Bolsa de 3.8 L"},</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248642278','Silica cat litter',12000,'3.8 L bag');</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 131, CategoryId= 11, EanCode= "7707248642278", Description= "Silica cat litter",  Price= 12000,  Unit= "3.8 L bag"},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4351,20 +4918,24 @@
         <v>7707248642377</v>
       </c>
       <c r="D133" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E133">
         <v>12000</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 132, CategoryId= 11, EanCode= "7707248642377", Description= "Comedero para mascota con base antideslizante",  Price= 12000,  Unit= "Unidad"},</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(11,'7707248642377','Pet feeder with non-slip base',12000,'Unit');</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 132, CategoryId= 11, EanCode= "7707248642377", Description= "Pet feeder with non-slip base",  Price= 12000,  Unit= "Unit"},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4375,20 +4946,24 @@
         <v>7707248642940</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E134">
         <v>80000</v>
       </c>
       <c r="F134" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 133, CategoryId= 12, EanCode= "7707248642940", Description= "Zapatos de tacón alto de cuero para mujer",  Price= 80000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248642940','Leather High Heel Shoes',80000,'Pair');</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 133, CategoryId= 12, EanCode= "7707248642940", Description= "Leather High Heel Shoes",  Price= 80000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4399,20 +4974,24 @@
         <v>7707248654561</v>
       </c>
       <c r="D135" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E135">
         <v>120000</v>
       </c>
       <c r="F135" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 134, CategoryId= 12, EanCode= "7707248654561", Description= "Botas de invierno impermeables para hombre",  Price= 120000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248654561','Waterproof winter boots',120000,'Pair');</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 134, CategoryId= 12, EanCode= "7707248654561", Description= "Waterproof winter boots",  Price= 120000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4423,20 +5002,24 @@
         <v>7707248655698</v>
       </c>
       <c r="D136" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E136">
         <v>30000</v>
       </c>
       <c r="F136" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 135, CategoryId= 12, EanCode= "7707248655698", Description= "Sandalias de playa para mujer",  Price= 30000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248655698','Flip flops',30000,'Pair');</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 135, CategoryId= 12, EanCode= "7707248655698", Description= "Flip flops",  Price= 30000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4447,20 +5030,24 @@
         <v>7707248656152</v>
       </c>
       <c r="D137" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E137">
         <v>70000</v>
       </c>
       <c r="F137" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 136, CategoryId= 12, EanCode= "7707248656152", Description= "Zapatillas deportivas para correr para hombre",  Price= 70000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248656152','Running sports shoes',70000,'Pair');</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 136, CategoryId= 12, EanCode= "7707248656152", Description= "Running sports shoes",  Price= 70000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4471,20 +5058,24 @@
         <v>7707248657364</v>
       </c>
       <c r="D138" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E138">
         <v>90000</v>
       </c>
       <c r="F138" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 137, CategoryId= 12, EanCode= "7707248657364", Description= "Zapatos de vestir de cuero para hombre",  Price= 90000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248657364','Leather dress shoes',90000,'Pair');</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 137, CategoryId= 12, EanCode= "7707248657364", Description= "Leather dress shoes",  Price= 90000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4495,20 +5086,24 @@
         <v>7707248673159</v>
       </c>
       <c r="D139" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E139">
         <v>40000</v>
       </c>
       <c r="F139" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 138, CategoryId= 12, EanCode= "7707248673159", Description= "Zapatos planos de ballet para mujer",  Price= 40000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248673159','ballet flat shoes',40000,'Pair');</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 138, CategoryId= 12, EanCode= "7707248673159", Description= "ballet flat shoes",  Price= 40000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4519,20 +5114,24 @@
         <v>7707248677379</v>
       </c>
       <c r="D140" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E140">
         <v>100000</v>
       </c>
       <c r="F140" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 139, CategoryId= 12, EanCode= "7707248677379", Description= "Botines de cuero con cordones para hombre",  Price= 100000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248677379','Lace-up leather ankle boots',100000,'Pair');</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 139, CategoryId= 12, EanCode= "7707248677379", Description= "Lace-up leather ankle boots",  Price= 100000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4543,20 +5142,24 @@
         <v>7707248681277</v>
       </c>
       <c r="D141" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E141">
         <v>60000</v>
       </c>
       <c r="F141" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 140, CategoryId= 12, EanCode= "7707248681277", Description= "Zapatos de tacón bajo de charol para mujer",  Price= 60000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248681277','Patent heeled shoes',60000,'Pair');</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 140, CategoryId= 12, EanCode= "7707248681277", Description= "Patent heeled shoes",  Price= 60000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4567,20 +5170,24 @@
         <v>7707248696363</v>
       </c>
       <c r="D142" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E142">
         <v>50000</v>
       </c>
       <c r="F142" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 141, CategoryId= 12, EanCode= "7707248696363", Description= "Zapatillas de deporte para mujer",  Price= 50000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248696363','Sneakers',50000,'Pair');</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 141, CategoryId= 12, EanCode= "7707248696363", Description= "Sneakers",  Price= 50000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4591,20 +5198,24 @@
         <v>7707248700633</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E143">
         <v>35000</v>
       </c>
       <c r="F143" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 142, CategoryId= 12, EanCode= "7707248700633", Description= "Zapatos casuales de lona para hombre",  Price= 35000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248700633','Casual Canvas Shoes',35000,'Pair');</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 142, CategoryId= 12, EanCode= "7707248700633", Description= "Casual Canvas Shoes",  Price= 35000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4615,20 +5226,24 @@
         <v>7707248703382</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E144">
         <v>70000</v>
       </c>
       <c r="F144" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 143, CategoryId= 12, EanCode= "7707248703382", Description= "Botas de cuero con hebilla para mujer",  Price= 70000,  Unit= "Par"},</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248703382','Leather boots with buckle',70000,'Pair');</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 143, CategoryId= 12, EanCode= "7707248703382", Description= "Leather boots with buckle",  Price= 70000,  Unit= "Pair"},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4639,17 +5254,21 @@
         <v>7707248708103</v>
       </c>
       <c r="D145" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E145">
         <v>70000</v>
       </c>
       <c r="F145" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="2"/>
-        <v>new Product() {Id= 144, CategoryId= 12, EanCode= "7707248708103", Description= "Zapatos de tacón medio de ante para mujer",  Price= 70000,  Unit= "Par"},</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO Products (CategoryId,EanCode,Description,Price,Unit) VALUES(12,'7707248708103','medium heel shoes',70000,'Pair');</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="5"/>
+        <v>new Product() {Id= 144, CategoryId= 12, EanCode= "7707248708103", Description= "medium heel shoes",  Price= 70000,  Unit= "Pair"},</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +5291,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
